--- a/报销清单.xlsx
+++ b/报销清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18637" windowHeight="8235"/>
+    <workbookView windowWidth="18037" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>日期</t>
   </si>
@@ -27,7 +27,19 @@
     <t>备注</t>
   </si>
   <si>
-    <t>赵建伟高铁篇（南京至上海），自付</t>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>赵建伟高铁票（南京至上海），自付</t>
+  </si>
+  <si>
+    <t>待提交</t>
+  </si>
+  <si>
+    <t>赵建伟高铁票（上海至宝华山），自付</t>
+  </si>
+  <si>
+    <t>已提交</t>
   </si>
   <si>
     <t>李泽干高铁票（赏花至北京），赵建伟代付</t>
@@ -58,6 +70,12 @@
   </si>
   <si>
     <t>赵建伟退票费，自付</t>
+  </si>
+  <si>
+    <t>报销状态</t>
+  </si>
+  <si>
+    <t>已报销</t>
   </si>
 </sst>
 </file>
@@ -65,15 +83,82 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -95,22 +180,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -119,105 +221,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,13 +250,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,67 +364,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,109 +434,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,35 +494,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +514,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,19 +551,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,145 +576,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1031,149 +1079,220 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="18.4601769911504" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.5929203539823" customWidth="1"/>
-    <col min="2" max="2" width="6.53097345132743" customWidth="1"/>
-    <col min="3" max="3" width="52.2743362831858" customWidth="1"/>
+    <col min="1" max="1" width="13.8141592920354" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69911504424779" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.2743362831858" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.4247787610619" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="18.4601769911504" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>43537</v>
+      </c>
+      <c r="B2" s="5">
+        <v>229.5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
+        <v>43534</v>
+      </c>
+      <c r="B3" s="5">
+        <v>124.5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
         <v>43531</v>
       </c>
-      <c r="B2">
+      <c r="B4" s="5">
         <v>144.5</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
         <v>43530</v>
       </c>
-      <c r="B3">
+      <c r="B5" s="5">
         <v>432</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6">
         <v>43523</v>
       </c>
-      <c r="B4">
+      <c r="B6" s="5">
         <v>558</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6">
         <v>43521</v>
       </c>
-      <c r="B5">
+      <c r="B7" s="5">
         <v>558</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6">
         <v>43495</v>
       </c>
-      <c r="B6">
+      <c r="B8" s="5">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
+    <row r="9" spans="1:4">
+      <c r="A9" s="6">
         <v>43494</v>
       </c>
-      <c r="B7">
+      <c r="B9" s="5">
         <v>500</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6">
         <v>43487</v>
       </c>
-      <c r="B8">
+      <c r="B10" s="5">
         <v>558</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6">
         <v>43481</v>
       </c>
-      <c r="B9">
+      <c r="B11" s="5">
         <v>522</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10">
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5">
         <v>315</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11">
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12">
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5">
         <v>52.5</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D4:D14 D15:D1048576">
+      <formula1>Sheet2!$A$2:$A$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1183,14 +1302,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/报销清单.xlsx
+++ b/报销清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18037" windowHeight="7965"/>
+    <workbookView windowWidth="18637" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>日期</t>
   </si>
@@ -24,40 +24,58 @@
     <t>金额</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>说明</t>
   </si>
   <si>
     <t>状态</t>
   </si>
   <si>
+    <t>事由</t>
+  </si>
+  <si>
+    <t>赵建伟长途汽车票（上海至宜兴），自付</t>
+  </si>
+  <si>
+    <t>待提交</t>
+  </si>
+  <si>
+    <t>宜兴展会</t>
+  </si>
+  <si>
+    <t>赵建伟高铁票（北京至上海），自付</t>
+  </si>
+  <si>
+    <t>无人机测试</t>
+  </si>
+  <si>
+    <t>赵建伟高铁票（上海至北京），自付。</t>
+  </si>
+  <si>
+    <t>李泽干飞机票（上海至贵阳），赵建伟代付</t>
+  </si>
+  <si>
+    <t>铁科院上车测试</t>
+  </si>
+  <si>
     <t>赵建伟高铁票（南京至上海），自付</t>
   </si>
   <si>
-    <t>待提交</t>
-  </si>
-  <si>
     <t>赵建伟高铁票（上海至宝华山），自付</t>
   </si>
   <si>
     <t>已提交</t>
   </si>
   <si>
-    <t>李泽干高铁票（赏花至北京），赵建伟代付</t>
+    <t>李泽干高铁票（上海至北京），赵建伟代付</t>
   </si>
   <si>
     <t>陈楠高铁票（上海至北京），赵建伟代付</t>
   </si>
   <si>
-    <t>赵建伟高铁票（上海至北京），自付。</t>
-  </si>
-  <si>
     <t>陈楠高铁测试电话卡充值，赵建伟代付</t>
   </si>
   <si>
     <t>陈楠高铁测试住宿费（深圳，南京两晚），赵建伟代付</t>
-  </si>
-  <si>
-    <t>赵建伟高铁票（北京至上海），自付</t>
   </si>
   <si>
     <t>赵建伟高铁票（汉口至北京），自付</t>
@@ -83,12 +101,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +115,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,123 +236,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,181 +276,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,11 +485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +506,30 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -503,21 +559,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -533,21 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -564,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,156 +602,165 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1079,217 +1114,301 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.4601769911504" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="18.4601769911504" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.8141592920354" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8141592920354" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.69911504424779" style="2" customWidth="1"/>
     <col min="3" max="3" width="52.2743362831858" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.4247787610619" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="18.4601769911504" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.4601769911504" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="18.4601769911504" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="6">
+        <v>43556</v>
+      </c>
+      <c r="B2" s="7">
+        <v>80</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6">
+        <v>43555</v>
+      </c>
+      <c r="B3" s="7">
+        <v>558</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6">
+        <v>43551</v>
+      </c>
+      <c r="B4" s="7">
+        <v>397</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
+        <v>43549</v>
+      </c>
+      <c r="B5" s="7">
+        <v>590</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6">
         <v>43537</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B6" s="7">
         <v>229.5</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6">
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
         <v>43534</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B7" s="7">
         <v>124.5</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
         <v>43531</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B8" s="7">
         <v>144.5</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
         <v>43530</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B9" s="7">
         <v>432</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>43523</v>
+      </c>
+      <c r="B10" s="7">
+        <v>558</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>43521</v>
+      </c>
+      <c r="B11" s="7">
+        <v>558</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>43495</v>
+      </c>
+      <c r="B12" s="7">
+        <v>100</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>43494</v>
+      </c>
+      <c r="B13" s="7">
+        <v>500</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>43487</v>
+      </c>
+      <c r="B14" s="7">
+        <v>558</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
-        <v>43523</v>
-      </c>
-      <c r="B6" s="5">
-        <v>558</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
-        <v>43521</v>
-      </c>
-      <c r="B7" s="5">
-        <v>558</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
-        <v>43495</v>
-      </c>
-      <c r="B8" s="5">
-        <v>100</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
-        <v>43494</v>
-      </c>
-      <c r="B9" s="5">
-        <v>500</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6">
-        <v>43487</v>
-      </c>
-      <c r="B10" s="5">
-        <v>558</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6">
+      <c r="D14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
         <v>43481</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B15" s="7">
         <v>522</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5">
+      <c r="C15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7">
         <v>315</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7">
         <v>53</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5">
+      <c r="C17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7">
         <v>52.5</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A11:A14"/>
+  <mergeCells count="2">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D4:D14 D15:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6:D7 D8:D18 D19:D1048576">
       <formula1>Sheet2!$A$2:$A$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1312,22 +1431,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
